--- a/sk/Merged Data Compact Analysis.xlsx
+++ b/sk/Merged Data Compact Analysis.xlsx
@@ -1,44 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>A ending?</t>
+  </si>
+  <si>
+    <t>Total # of sonorants (m,n,l,r,w,y)</t>
+  </si>
+  <si>
+    <t>1st letter fricative? (f,v,th,s,z,sh,ch,j)</t>
+  </si>
+  <si>
+    <t>1st letter vowel? (a, e, i, o, u)</t>
+  </si>
+  <si>
+    <t>1st letter plosive? (p,b,t,d,k,g)</t>
+  </si>
+  <si>
+    <t>1st letter sonorant? (m,n,l,r,w,y)</t>
+  </si>
+  <si>
+    <t># of letters</t>
+  </si>
+  <si>
+    <t>Total # of vowels (a, e, i, o, u)</t>
+  </si>
+  <si>
+    <t># of fricatives (f,v,th,s,z,sh,ch,j)</t>
+  </si>
+  <si>
+    <t>Total # of plosives  (p,b,t,d,k,g)</t>
+  </si>
+  <si>
+    <t>VowelEnding? (a, e, i, o, u,y)</t>
+  </si>
+  <si>
+    <t>Fricative ending? (f,v,th,s,z,sh,ch,dge)</t>
+  </si>
+  <si>
+    <t>Sonorant ending? (m,n,ng,l,r)</t>
+  </si>
+  <si>
+    <t>Plosive ending? (p,b,t,d,k,g)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,26 +92,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -331,25 +378,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.782064370179202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3836629496522774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.229875788884453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2210850663297613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07938711282182744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.07558365901830988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.06087144687628454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.01118091090978412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.03096019157265607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1597381491766446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.4995589623168931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.197297758953946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-2.263026142580608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.319495340667723</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAF23C1-69A6-49F2-84C4-9817DB0909F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/sk/Merged Data Compact Analysis.xlsx
+++ b/sk/Merged Data Compact Analysis.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samin\Desktop\Machine Learning Project\GenderPrediction\sk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Coefficient Weighting" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>A ending?</t>
   </si>
@@ -57,28 +62,66 @@
   </si>
   <si>
     <t>Plosive ending? (p,b,t,d,k,g)</t>
+  </si>
+  <si>
+    <t>Runtime of compact model LOOCV: 27585.209161758423</t>
+  </si>
+  <si>
+    <t>Overall accuracy: 0.788016724681263</t>
+  </si>
+  <si>
+    <t>Male accuracy: 0.7015892352843458</t>
+  </si>
+  <si>
+    <t>Female accuracy: 0.8392037255673619</t>
+  </si>
+  <si>
+    <t>Magnitudes</t>
+  </si>
+  <si>
+    <t>White = Female</t>
+  </si>
+  <si>
+    <t>Black = Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female accuracy: </t>
+  </si>
+  <si>
+    <t>Male accuracy:</t>
+  </si>
+  <si>
+    <t>Overall accuracy:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,27 +136,1235 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Compact Coefficient Weighting for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Merged Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-8A2B-4CA4-935D-9361843A7589}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Coefficient Weighting'!$A$2:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>A ending?</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plosive ending? (p,b,t,d,k,g)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sonorant ending? (m,n,ng,l,r)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fricative ending? (f,v,th,s,z,sh,ch,dge)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VowelEnding? (a, e, i, o, u,y)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total # of sonorants (m,n,l,r,w,y)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1st letter fricative? (f,v,th,s,z,sh,ch,j)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1st letter vowel? (a, e, i, o, u)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Total # of plosives  (p,b,t,d,k,g)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1st letter plosive? (p,b,t,d,k,g)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1st letter sonorant? (m,n,l,r,w,y)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v># of letters</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v># of fricatives (f,v,th,s,z,sh,ch,j)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Total # of vowels (a, e, i, o, u)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Coefficient Weighting'!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7820643701792021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3194953406677228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2630261425806082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1972977589539462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49955896231689312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38366294965227737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22987578888445301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2210850663297613</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15973814917664461</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9387112821827435E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5583659018309879E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0871446876284541E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.096019157265607E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.118091090978412E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A2B-4CA4-935D-9361843A7589}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="467306072"/>
+        <c:axId val="467309024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="467306072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Features</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467309024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467309024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Model Coefficient Magnitudes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467306072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D197FE74-8D9C-4BB6-9FF3-B75DB962E261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,158 +1629,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.782064370179202</v>
+      <c r="B2">
+        <v>2.7820643701792021</v>
+      </c>
+      <c r="C2">
+        <f>ABS(B2)</f>
+        <v>2.7820643701792021</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>-2.3194953406677228</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3)</f>
+        <v>2.3194953406677228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-2.2630261425806082</v>
+      </c>
+      <c r="C4">
+        <f>ABS(B4)</f>
+        <v>2.2630261425806082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>-2.1972977589539462</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5)</f>
+        <v>2.1972977589539462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>-0.49955896231689312</v>
+      </c>
+      <c r="C6">
+        <f>ABS(B6)</f>
+        <v>0.49955896231689312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.3836629496522774</v>
+      <c r="B7">
+        <v>0.38366294965227737</v>
+      </c>
+      <c r="C7">
+        <f>ABS(B7)</f>
+        <v>0.38366294965227737</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.229875788884453</v>
+      <c r="B8">
+        <v>0.22987578888445301</v>
+      </c>
+      <c r="C8">
+        <f>ABS(B8)</f>
+        <v>0.22987578888445301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B9">
         <v>0.2210850663297613</v>
       </c>
+      <c r="C9">
+        <f>ABS(B9)</f>
+        <v>0.2210850663297613</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-0.15973814917664461</v>
+      </c>
+      <c r="C10">
+        <f>ABS(B10)</f>
+        <v>0.15973814917664461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.07938711282182744</v>
+      <c r="B11">
+        <v>7.9387112821827435E-2</v>
+      </c>
+      <c r="C11">
+        <f>ABS(B11)</f>
+        <v>7.9387112821827435E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.07558365901830988</v>
+      <c r="B12">
+        <v>7.5583659018309879E-2</v>
+      </c>
+      <c r="C12">
+        <f>ABS(B12)</f>
+        <v>7.5583659018309879E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.06087144687628454</v>
+      <c r="B13">
+        <v>6.0871446876284541E-2</v>
+      </c>
+      <c r="C13">
+        <f>ABS(B13)</f>
+        <v>6.0871446876284541E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>-3.096019157265607E-2</v>
+      </c>
+      <c r="C14">
+        <f>ABS(B14)</f>
+        <v>3.096019157265607E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.01118091090978412</v>
+      <c r="B15">
+        <v>1.118091090978412E-2</v>
+      </c>
+      <c r="C15">
+        <f>ABS(B15)</f>
+        <v>1.118091090978412E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.03096019157265607</v>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.78801672468126305</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.1597381491766446</v>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.70158923528434503</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.4995589623168931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.197297758953946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-2.263026142580608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-2.319495340667723</v>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.839203725567361</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sortState ref="A2:D15">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>